--- a/분석4인구/4_취약계층(1)인구밀도/(1)인구밀도.xlsx
+++ b/분석4인구/4_취약계층(1)인구밀도/(1)인구밀도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\DS Projects\lsbs-gen5\data\daegu\최종\4_취약계층(1)인구밀도\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SafeDaeguFlood\분석4인구\4_취약계층(1)인구밀도\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="58" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>148</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="59" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>147</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="60" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>146</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="61" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>145</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="62" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>144</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="63" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>143</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="64" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>142</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="65" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>141</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="66" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>140</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="67" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>139</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="68" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>138</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="69" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>137</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="70" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>136</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="96" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="97" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="98" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>94</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="99" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>93</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="100" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>92</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="101" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>91</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="102" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>90</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="103" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>89</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="104" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>88</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="105" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>87</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="106" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="107" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>84</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="108" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>85</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="109" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>83</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="110" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>82</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="111" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>81</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="112" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>80</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="113" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>79</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="114" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>78</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="115" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>77</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="116" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>76</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="117" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>75</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="118" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>74</v>
